--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loulou/repos/simfin/simfin/missions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7730F2-0290-F34D-9482-266B5162B9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A86A47-88B1-FA4A-B9C8-02FD8A608B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inputs" sheetId="2" r:id="rId1"/>
+    <sheet name="input" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>account</t>
   </si>
@@ -56,19 +56,10 @@
     <t>justice</t>
   </si>
   <si>
-    <t>covid_spending</t>
-  </si>
-  <si>
-    <t>covid_transfers</t>
-  </si>
-  <si>
     <t>e_trend</t>
   </si>
   <si>
     <t>e_cycle</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
   <si>
     <t>1.0</t>
@@ -443,10 +434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <v>2006</v>
@@ -520,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -579,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -638,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -697,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -756,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -808,124 +799,6 @@
       </c>
       <c r="S6" s="1">
         <v>11156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>11920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>4039</v>
       </c>
     </row>
   </sheetData>

--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A86A47-88B1-FA4A-B9C8-02FD8A608B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53881705-C77E-A544-826E-C197E0F83529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>account</t>
   </si>
@@ -50,9 +50,6 @@
     <t>economy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>justice</t>
   </si>
   <si>
@@ -63,6 +60,15 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>family_kg</t>
+  </si>
+  <si>
+    <t>family_other</t>
+  </si>
+  <si>
+    <t>family_credit</t>
   </si>
 </sst>
 </file>
@@ -92,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,9 +126,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
       <c r="D1">
         <v>2006</v>
@@ -511,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -570,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -629,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -684,120 +697,238 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>7690</v>
-      </c>
-      <c r="E5">
-        <v>8030</v>
-      </c>
-      <c r="F5">
-        <v>8166</v>
-      </c>
-      <c r="G5">
-        <v>8301</v>
-      </c>
-      <c r="H5">
-        <v>8775</v>
-      </c>
-      <c r="I5">
-        <v>8932</v>
-      </c>
-      <c r="J5">
-        <v>9146</v>
-      </c>
-      <c r="K5">
-        <v>9269</v>
-      </c>
-      <c r="L5">
-        <v>9543</v>
-      </c>
-      <c r="M5">
-        <v>9647</v>
-      </c>
-      <c r="N5">
-        <v>9589</v>
-      </c>
-      <c r="O5">
-        <v>9562</v>
-      </c>
-      <c r="P5">
-        <v>9816</v>
-      </c>
-      <c r="Q5">
-        <v>10095</v>
-      </c>
-      <c r="R5" s="1">
-        <v>10926</v>
-      </c>
-      <c r="S5" s="1">
-        <v>11246</v>
+      <c r="D5" s="2">
+        <v>2207</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2273</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2295</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2308</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2401</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2471</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2570</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2701</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2799</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2838</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2866</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2855</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3066</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3197</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3522</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3668</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
+        <v>1927</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2046</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2080</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2198</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2238</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2291</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2322</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2391</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2417</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2402</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2396</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2459</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2529</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2737</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3556</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3745</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3825</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3913</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4176</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4223</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4285</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4246</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4353</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4392</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4321</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4311</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4291</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4369</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4667</v>
+      </c>
+      <c r="S7" s="2">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>5379</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>5657</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>5592</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>6201</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>6611</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>6292</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>6287</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>6386</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>6712</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>6728</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>6686</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <v>6737</v>
       </c>
-      <c r="P6">
+      <c r="P8">
         <v>7039</v>
       </c>
-      <c r="Q6">
+      <c r="Q8">
         <v>7510</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R8" s="1">
         <v>9503</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S8" s="1">
         <v>11156</v>
       </c>
     </row>

--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53881705-C77E-A544-826E-C197E0F83529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA684D-8D7A-7346-9EFB-399E0EE24DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA684D-8D7A-7346-9EFB-399E0EE24DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9FA8E-32FC-5545-AEB8-CAD4709A2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="13380" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>account</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>family_credit</t>
+  </si>
+  <si>
+    <t>additional_accounts</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,6 +935,65 @@
         <v>11156</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>11920</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/missions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9FA8E-32FC-5545-AEB8-CAD4709A2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063CA4A-D0CB-C347-9A3A-80864AF2B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="13380" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9100" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -450,10 +450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +463,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +521,14 @@
       <c r="S1">
         <v>2021</v>
       </c>
+      <c r="T1">
+        <v>2022</v>
+      </c>
+      <c r="U1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +587,7 @@
         <v>46409</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -640,7 +646,7 @@
         <v>26619</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -699,7 +705,7 @@
         <v>15391</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -758,7 +764,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -817,7 +823,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -876,7 +882,7 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -935,7 +941,7 @@
         <v>11156</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -992,6 +998,12 @@
       </c>
       <c r="S9" s="1">
         <v>11920</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4284</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1179</v>
       </c>
     </row>
   </sheetData>

--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063CA4A-D0CB-C347-9A3A-80864AF2B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010E125-03A4-244E-98E3-86B1517709A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9100" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18780" yWindow="4680" windowWidth="27600" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,10 +129,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +465,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +529,14 @@
       <c r="U1">
         <v>2023</v>
       </c>
+      <c r="V1">
+        <v>2024</v>
+      </c>
+      <c r="W1">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -581,13 +589,13 @@
         <v>41522</v>
       </c>
       <c r="R2" s="1">
-        <v>43699</v>
+        <v>43931</v>
       </c>
       <c r="S2" s="1">
-        <v>46409</v>
+        <v>45006</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -640,13 +648,13 @@
         <v>23887</v>
       </c>
       <c r="R3" s="1">
-        <v>25267</v>
+        <v>25473</v>
       </c>
       <c r="S3" s="1">
-        <v>26619</v>
+        <v>26157</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -699,13 +707,13 @@
         <v>14730</v>
       </c>
       <c r="R4" s="1">
-        <v>17293</v>
+        <v>17753</v>
       </c>
       <c r="S4" s="1">
-        <v>15391</v>
+        <v>16043</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -715,56 +723,56 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>2207</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2273</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2295</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2308</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2401</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2471</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2570</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2701</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2799</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2838</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2866</v>
-      </c>
-      <c r="O5" s="2">
-        <v>2855</v>
-      </c>
-      <c r="P5" s="2">
-        <v>3066</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>3197</v>
-      </c>
-      <c r="R5" s="2">
-        <v>3522</v>
-      </c>
-      <c r="S5" s="2">
-        <v>3668</v>
+      <c r="D5" s="3">
+        <v>2284</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2628</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2646</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2673</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2778</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2851</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2935</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3055</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3155</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3196</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3170</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3199</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3401</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3542</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3881</v>
+      </c>
+      <c r="S5" s="3">
+        <v>4005</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -774,56 +782,44 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>1927</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2012</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2046</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2080</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2198</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2238</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2291</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2322</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2391</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2417</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2402</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2396</v>
-      </c>
-      <c r="P6" s="2">
-        <v>2459</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>2529</v>
-      </c>
-      <c r="R6" s="2">
-        <v>2737</v>
-      </c>
-      <c r="S6" s="2">
-        <v>2817</v>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>2182</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2196</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2253</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2295</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2233</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2173</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2190</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2218</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2481</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2596</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,56 +829,56 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>3556</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3745</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3825</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3913</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4176</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4223</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4285</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4246</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4353</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4392</v>
-      </c>
-      <c r="N7" s="2">
-        <v>4321</v>
-      </c>
-      <c r="O7" s="2">
-        <v>4311</v>
-      </c>
-      <c r="P7" s="2">
-        <v>4291</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>4369</v>
-      </c>
-      <c r="R7" s="2">
-        <v>4667</v>
-      </c>
-      <c r="S7" s="2">
-        <v>4761</v>
+      <c r="D7" s="3">
+        <v>5406</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5402</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5520</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5628</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6081</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4029</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4018</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4135</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4156</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4186</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4190</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4225</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4335</v>
+      </c>
+      <c r="R7" s="3">
+        <v>4554</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3797</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -935,13 +931,13 @@
         <v>7510</v>
       </c>
       <c r="R8" s="1">
-        <v>9503</v>
+        <v>9142</v>
       </c>
       <c r="S8" s="1">
-        <v>11156</v>
+        <v>8823</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -997,14 +993,23 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>11920</v>
+        <v>12694</v>
       </c>
       <c r="T9" s="1">
-        <v>4284</v>
+        <v>9043</v>
       </c>
       <c r="U9" s="1">
-        <v>1179</v>
-      </c>
+        <v>2355</v>
+      </c>
+      <c r="V9" s="1">
+        <v>462</v>
+      </c>
+      <c r="W9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/simfin/missions/historical_accounts.xlsx
+++ b/simfin/missions/historical_accounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/missions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/missions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010E125-03A4-244E-98E3-86B1517709A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10477690-C931-8B47-AF6A-10DCA2D89E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="4680" windowWidth="27600" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="16580" windowWidth="27600" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>account</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>additional_accounts</t>
+  </si>
+  <si>
+    <t>1.4757</t>
+  </si>
+  <si>
+    <t>-0.0879</t>
+  </si>
+  <si>
+    <t>1.2176</t>
+  </si>
+  <si>
+    <t>-0.0931</t>
   </si>
 </sst>
 </file>
@@ -129,12 +141,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,9 +467,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -659,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
         <v>7896</v>
@@ -883,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D8">
         <v>5379</v>
